--- a/cuttheropeGOLD.xlsx
+++ b/cuttheropeGOLD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-ipa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4716D5F2-47B1-416D-A6A4-85572BDB0F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02623F7C-960B-4EFB-832D-7362F5DE1948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{AD3EC427-5B3A-4B19-9062-715C93EDEFCD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD3EC427-5B3A-4B19-9062-715C93EDEFCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Jailbroken 32" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
   <si>
     <t>Version</t>
   </si>
@@ -153,6 +153,36 @@
   </si>
   <si>
     <t>https://1024terabox.com/s/1qqZ06gloO8vyN3l6etiykA</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1kGNeGDZ3dHrKJKFypWcFpg?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1aj8FbQ9Tp07-krkoxazNxg?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1NnK7BsrAUN3vxah0NwlYSg?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1Afb2Eq64b_S-_ECwm7mQRg?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1SmVmZa4Zx7BInPyGNTlyFQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1Ae-ngtA6PQDQCqLEPWUn_Q</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1bXXwjMbPb4HHeogoTkzi9w</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/12JiYrFfCXlbbX6y6n9jhhw</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1sE40fn-Sh7BqSH922EJZPw</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1DC4xrXiEnfhDsvkY6RV7Lg</t>
   </si>
 </sst>
 </file>
@@ -559,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C908013A-A60D-4E77-9726-A61EAE7F90F5}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,6 +637,91 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>814386406</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>814409639</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>814549376</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>820094493</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>821639062</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -676,7 +791,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -817,7 +932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFC1323-77D0-449A-BFEA-02D7FB6F1271}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
